--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07778A81-ECBB-4C6A-A4BC-F33581D1D189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65D04D-566D-4D33-86C3-2E323A5048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_sev" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -665,9 +678,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1056,13 +1072,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A0519-61F8-4DBE-9F15-082445A24AD9}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" activeCellId="9" sqref="E5 E9 E11 E15 E17 E19 E20 E22 E24 E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="24" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="16.7109375" customWidth="1"/>
     <col min="26" max="27" width="12.7109375" customWidth="1"/>
     <col min="28" max="28" width="16.140625" customWidth="1"/>
@@ -1070,95 +1088,95 @@
     <col min="30" max="31" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3445,10 +3463,7 @@
   </sheetData>
   <conditionalFormatting sqref="B2:AE25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.005</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="2" operator="lessThan">
-      <formula>0.005</formula>
+      <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28306"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPMI_Research_on_Parkinsons\src\mahbub\pair_wise_p_values_Ttest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65D04D-566D-4D33-86C3-2E323A5048DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ADB3B9-C392-4C4F-B2B6-BAC948D25DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
+    <workbookView xWindow="2760" yWindow="0" windowWidth="21600" windowHeight="16200" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_sev" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -678,12 +665,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -729,7 +713,27 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1073,14 +1077,18 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" activeCellId="9" sqref="E5 E9 E11 E15 E17 E19 E20 E22 E24 E25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="24" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="24" width="12.7109375" customWidth="1"/>
     <col min="25" max="25" width="16.7109375" customWidth="1"/>
     <col min="26" max="27" width="12.7109375" customWidth="1"/>
     <col min="28" max="28" width="16.140625" customWidth="1"/>
@@ -1088,95 +1096,95 @@
     <col min="30" max="31" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3461,6 +3469,14 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AE25">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0.005</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="lessThan">
+      <formula>0.005</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:AE25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.05</formula>

--- a/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
+++ b/src/mahbub/pair_wise_p_values_Ttest/numerical_pairwise_p_values_severity.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects\PycharmProjects\PPMI_Research_on_Parkinson's\src\mahbub\pair_wise_p_values_Ttest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19F36B8-2EF4-4950-B4F9-284B9F7E43D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8442753B-2113-450E-85AB-07C45D665ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
+    <workbookView xWindow="7200" yWindow="45" windowWidth="21600" windowHeight="13620" xr2:uid="{89F4B0EF-0D5D-43EB-B19B-80E8154A2218}"/>
   </bookViews>
   <sheets>
     <sheet name="numerical_pairwise_p_values_sev" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -279,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +470,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,9 +639,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -668,37 +689,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1049,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813A0519-61F8-4DBE-9F15-082445A24AD9}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,7 +1848,7 @@
         <v>1.16853134032448E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1907,7 +1898,7 @@
         <v>0.21869209469183901</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1948,7 @@
         <v>6.3974702119751495E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2007,7 +1998,7 @@
         <v>0.52345650579564296</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2057,7 +2048,7 @@
         <v>0.61453641742590104</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2107,7 +2098,7 @@
         <v>9.9803259020305405E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2157,7 +2148,7 @@
         <v>0.219851294429385</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -2207,123 +2198,184 @@
         <v>1.2773298404110201E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <f>(COUNTIF(B2:B23,"&lt;0.05")/COUNTA(B2:B23))*100</f>
+        <v>13.636363636363635</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:P24" si="0">(COUNTIF(C2:C23,"&lt;0.05")/COUNTA(C2:C23))*100</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>31.818181818181817</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>54.54545454545454</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="0"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="0"/>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="0"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B31" s="1">
         <v>0.86858957054021202</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C31" s="1">
         <v>0.85704856190866796</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D31" s="1">
         <v>0.34585571476834398</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E31" s="1">
         <v>0.183901579639901</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F31" s="1">
         <v>0.68720012545384002</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G31" s="1">
         <v>0.99070978591509995</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H31" s="1">
         <v>0.14067445177010701</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I31" s="1">
         <v>4.4893829226247198E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J31" s="1">
         <v>0.76556809250870805</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K31" s="1">
         <v>0.11527519688627701</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L31" s="1">
         <v>3.3028892190586398E-2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M31" s="1">
         <v>0.75917111601432397</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N31" s="1">
         <v>0.47350309172608901</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O31" s="1">
         <v>0.75481700944429098</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P31" s="1">
         <v>0.51492619435425302</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B32" s="1">
         <v>6.6598259250078104E-2</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C32" s="1">
         <v>0.166426816872568</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D32" s="1">
         <v>0.26813160475230902</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E32" s="1">
         <v>0.870382735452774</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F32" s="1">
         <v>0.28200697067605801</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G32" s="1">
         <v>0.54696381520915405</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H32" s="1">
         <v>0.55197418370015905</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I32" s="1">
         <v>4.7114143236531798E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J32" s="1">
         <v>2.4080256508900499E-2</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K32" s="1">
         <v>0.89885283410628303</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L32" s="1">
         <v>0.115501542717473</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M32" s="1">
         <v>5.7556779725567699E-2</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N32" s="1">
         <v>0.219798026852909</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O32" s="1">
         <v>0.11320380503041</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P32" s="1">
         <v>0.47199043556619902</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:P25">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="B1:P23 B31:P32">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:P23 B31:P32">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:P25">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>